--- a/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-procedure.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/StructureDefinition-jp-procedure.xlsx
@@ -512,7 +512,7 @@
     <t>Instantiates external protocol or definition</t>
   </si>
   <si>
-    <t>本Procedrure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
+    <t>本Procedure全体または一部を遵守する、外部で管理されているプロトコル、ガイドライン、オーダーセット、またはその他の定義を指すURL。</t>
   </si>
   <si>
     <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
@@ -1021,7 +1021,7 @@
     <t>When the procedure was performed プロシジャーが実施された時期</t>
   </si>
   <si>
-    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcdedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
+    <t>Procedureが行われた推定または実際の日付、日時、期間、または年齢。複数の日付にまたがる複雑なProcedureをサポートするために期間を許可し、Procdedureの長さを把握することも可能。</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.
@@ -1273,7 +1273,7 @@
     <t>The justification that the procedure was performed プロシジャーが実施された正当性</t>
   </si>
   <si>
-    <t>なぜそのようなPlocedureを行ったのか、その正当性を示す。</t>
+    <t>なぜそのようなProcedureを行ったのか、その正当性を示す。</t>
   </si>
   <si>
     <t>It is possible for a procedure to be a reason (such as C-Section) for another procedure (such as an epidural). Other examples include endoscopy for dilatation and biopsy (a combination of diagnostic and therapeutic use). 
